--- a/pred_ohlcv/54_21/2020-01-19 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 POWR ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>178387.92096232</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>223387.92096232</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>206388.48466232</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>147575.87796232</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>173306.39336232</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>140224.30196232</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>138674.30196232</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>139486.15196232</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>139695.71196232</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>138055.71196232</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>138153.22986232</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>83478.40552788999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>83478.40552788999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>83478.40552788999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>88843.75022788999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>88843.75022788999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>88843.75022788999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>312990.4065677201</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>312990.4065677201</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>378856.1724677201</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>373067.62056772</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>432463.92295838</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>431561.67655838</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>374877.63695838</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>376047.63695838</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>374877.63695838</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>374768.54615838</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>375938.54615838</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>373356.85255838</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>350910.57215838</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>355239.28225838</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>355239.28225838</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>355239.28225838</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>355228.28225838</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 POWR ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>178387.92096232</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>223387.92096232</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>206388.48466232</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>147575.87796232</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>173306.39336232</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>140224.30196232</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>138674.30196232</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>139486.15196232</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>139695.71196232</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>138055.71196232</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>138153.22986232</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>83478.40552788999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>83478.40552788999</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>83478.40552788999</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>88843.75022788999</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>88843.75022788999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>88843.75022788999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>301674.5179677201</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>274480.7707677201</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>315428.4461677201</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>312990.4065677201</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>312990.4065677201</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>285214.4065677201</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>412424.8575583801</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>406221.8575583801</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>432463.92295838</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>374877.63695838</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>376047.63695838</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>374877.63695838</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>374768.54615838</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>375938.54615838</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>373356.85255838</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>350910.57215838</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>355239.28225838</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>355239.28225838</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>355228.28225838</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
